--- a/sample2.xlsx
+++ b/sample2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internship\data-visualizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E5B7F1E-7070-4AD8-90D3-531AE67ED32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554AC2A5-9FEB-407A-9C71-277985027EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BEFCF100-F432-466F-A10A-A223DDD995DC}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>Reservation ID</t>
-  </si>
-  <si>
     <t>ABC123</t>
   </si>
   <si>
@@ -60,7 +57,10 @@
     <t>BCD890</t>
   </si>
   <si>
-    <t>Rating</t>
+    <t>Reservation_ID</t>
+  </si>
+  <si>
+    <t>rating</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,7 +436,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
@@ -444,7 +444,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -452,7 +452,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>5</v>
